--- a/Report/Report-Excel.xlsx
+++ b/Report/Report-Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hn\Desktop\jz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hn\Desktop\jz\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="184">
   <si>
     <t>Employee Id</t>
   </si>
@@ -1400,13 +1400,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV31"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1948,131 +1948,6 @@
       </c>
       <c r="AE5" s="8">
         <v>999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2478,7 +2353,7 @@
   <dimension ref="A1:BI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2805,10 +2680,10 @@
   <dimension ref="A1:BY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BG1" sqref="BE1:BG1"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3826,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Report/Report-Excel.xlsx
+++ b/Report/Report-Excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ReportTakeHomepay" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="187">
   <si>
     <t>Employee Id</t>
   </si>
@@ -315,18 +315,12 @@
     <t>com005</t>
   </si>
   <si>
-    <t>fix.com005*res.com073</t>
-  </si>
-  <si>
     <t>Tj Trans &amp; Kelebihan Jam Kerja</t>
   </si>
   <si>
     <t>com006</t>
   </si>
   <si>
-    <t>fix.com001/173*res.com071</t>
-  </si>
-  <si>
     <t>Tj Project</t>
   </si>
   <si>
@@ -598,6 +592,21 @@
   </si>
   <si>
     <t>Total Netral</t>
+  </si>
+  <si>
+    <t>fix.com005*res.com070</t>
+  </si>
+  <si>
+    <t>com073</t>
+  </si>
+  <si>
+    <t>Mangkir Days</t>
+  </si>
+  <si>
+    <t>fix.com001/173*res.com073</t>
+  </si>
+  <si>
+    <t>fix.com001*com071/com069</t>
   </si>
 </sst>
 </file>
@@ -624,7 +633,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,6 +643,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -660,6 +675,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1403,10 +1419,10 @@
   <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1493,64 +1509,64 @@
         <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE1" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
@@ -1960,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2042,37 +2058,37 @@
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2352,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2436,25 +2452,25 @@
         <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2525,16 +2541,16 @@
         <v>41703</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H2">
         <v>99999</v>
       </c>
       <c r="I2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K2">
         <v>99999</v>
@@ -2566,16 +2582,16 @@
         <v>42311</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H3">
         <v>99999</v>
       </c>
       <c r="I3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K3">
         <v>99999</v>
@@ -2607,16 +2623,16 @@
         <v>40306</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H4">
         <v>99999</v>
       </c>
       <c r="I4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K4">
         <v>99999</v>
@@ -2648,16 +2664,16 @@
         <v>43412</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H5">
         <v>99999</v>
       </c>
       <c r="I5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K5">
         <v>99999</v>
@@ -2683,7 +2699,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2847,103 +2863,103 @@
         <v>87</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU1" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AW1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BH1" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BH1" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
@@ -3699,11 +3715,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3720,31 +3734,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>167</v>
       </c>
-      <c r="E1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>169</v>
-      </c>
-      <c r="H1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3917,7 +3931,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -3934,16 +3948,16 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3960,16 +3974,16 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3986,10 +4000,10 @@
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F11">
         <v>110</v>
@@ -4009,10 +4023,10 @@
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F12">
         <v>120</v>
@@ -4032,16 +4046,16 @@
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F13">
         <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4058,16 +4072,16 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F14">
         <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4084,10 +4098,10 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F15">
         <v>150</v>
@@ -4107,10 +4121,10 @@
         <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F16">
         <v>160</v>
@@ -4130,16 +4144,16 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F17">
         <v>170</v>
       </c>
       <c r="G17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4156,16 +4170,16 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F18">
         <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4182,16 +4196,16 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F19">
         <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4208,13 +4222,16 @@
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F20">
         <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>186</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4231,10 +4248,10 @@
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F21">
         <v>210</v>
@@ -4254,10 +4271,10 @@
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F22">
         <v>220</v>
@@ -4277,10 +4294,10 @@
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F23">
         <v>230</v>
@@ -4300,10 +4317,10 @@
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F24">
         <v>240</v>
@@ -4323,10 +4340,10 @@
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F25">
         <v>250</v>
@@ -4346,16 +4363,16 @@
         <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F26">
         <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -4372,16 +4389,16 @@
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F27">
         <v>260</v>
       </c>
       <c r="G27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -4398,16 +4415,16 @@
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F28">
         <v>270</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -4424,16 +4441,16 @@
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F29">
         <v>280</v>
       </c>
       <c r="G29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -4450,16 +4467,16 @@
         <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F30">
         <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -4476,16 +4493,16 @@
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F31">
         <v>290</v>
       </c>
       <c r="G31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4502,16 +4519,16 @@
         <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F32">
         <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -4528,16 +4545,16 @@
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F33">
         <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4554,91 +4571,115 @@
         <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F34">
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="9">
+        <v>20</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="9">
+        <v>25</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F35">
-        <v>20</v>
-      </c>
-      <c r="I35">
+      <c r="F37" s="9">
+        <v>30</v>
+      </c>
+      <c r="I37" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C38" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F36">
-        <v>30</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" t="s">
-        <v>162</v>
-      </c>
-      <c r="F37">
+      <c r="F38" s="9">
         <v>40</v>
       </c>
-      <c r="I37">
+      <c r="I38" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>